--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB98E00-E225-4189-9B1B-FF24415DEF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E04D9-ACFA-4A69-B60F-4BFF9B1DEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="6320" windowWidth="19200" windowHeight="11170" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -56,27 +56,9 @@
     <t>Effort</t>
   </si>
   <si>
-    <t>CAL1</t>
-  </si>
-  <si>
-    <t>CAL2</t>
-  </si>
-  <si>
-    <t>CAL3</t>
-  </si>
-  <si>
-    <t>CAL4</t>
-  </si>
-  <si>
-    <t>CAL5</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
-    <t xml:space="preserve">As a Visitor i want to get a overview of what to expect </t>
-  </si>
-  <si>
     <t>As a Visitor i want to know the rules of the server</t>
   </si>
   <si>
@@ -86,32 +68,53 @@
     <t>As a Administrator i  want to show some server Highlights</t>
   </si>
   <si>
-    <t xml:space="preserve">As a Administrator i want provide prio que </t>
-  </si>
-  <si>
-    <t>A little overview on the mainpage/home</t>
-  </si>
-  <si>
-    <t>A overview about groupe size and behaviors of the server</t>
-  </si>
-  <si>
-    <t>a link to the servers Discord channel</t>
-  </si>
-  <si>
-    <t>Special places, equiptment, bosses or events in a highlight video</t>
-  </si>
-  <si>
-    <t>Prio que to support the server financially</t>
+    <t>As a Visitor i want to see the main landing page as prepared allredy</t>
+  </si>
+  <si>
+    <t>Headlines with some teaser text, a dummi navigation at the bottom whit mainpage/Rules/Discord/Donations</t>
+  </si>
+  <si>
+    <t>Desing a page with same dummi navigation and a overview of the rules on the center of the page</t>
+  </si>
+  <si>
+    <t>The navigation button for Discord should provide the discord link on any page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the spare place in the middle of the Mainpage a nice teaser video of highlights and gameplay </t>
+  </si>
+  <si>
+    <t>Create and Record some gameplayvideos and cut it</t>
+  </si>
+  <si>
+    <t>As a Administrator i want to provide server prio que for Donations</t>
+  </si>
+  <si>
+    <t>Create and Desing a Page for Donations (prio que) with only dummies, this will be filled up from the Owner of the server</t>
+  </si>
+  <si>
+    <t>As a Visitor i want to get all the infos from the about us section</t>
+  </si>
+  <si>
+    <t>Desing a page with same dummi navigation and the story about the server owners, and what to expect from the server provide 1-2 pictures matching the server story</t>
+  </si>
+  <si>
+    <t>Admin1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,16 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="54.6328125" customWidth="1"/>
+    <col min="4" max="4" width="57.08984375" customWidth="1"/>
+    <col min="5" max="5" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -505,92 +508,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E04D9-ACFA-4A69-B60F-4BFF9B1DEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE34ABC-DC77-42DA-8C29-68FEAD849419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,6 +627,12 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f>SUM(F3:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE34ABC-DC77-42DA-8C29-68FEAD849419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04483315-53E4-4F6D-8817-9918336BC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -56,49 +56,55 @@
     <t>Effort</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>As a Visitor i want to know the rules of the server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Visitor i want to know the Discord link </t>
-  </si>
-  <si>
-    <t>As a Administrator i  want to show some server Highlights</t>
-  </si>
-  <si>
-    <t>As a Visitor i want to see the main landing page as prepared allredy</t>
-  </si>
-  <si>
-    <t>Headlines with some teaser text, a dummi navigation at the bottom whit mainpage/Rules/Discord/Donations</t>
-  </si>
-  <si>
-    <t>Desing a page with same dummi navigation and a overview of the rules on the center of the page</t>
-  </si>
-  <si>
-    <t>The navigation button for Discord should provide the discord link on any page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the spare place in the middle of the Mainpage a nice teaser video of highlights and gameplay </t>
-  </si>
-  <si>
-    <t>Create and Record some gameplayvideos and cut it</t>
-  </si>
-  <si>
-    <t>As a Administrator i want to provide server prio que for Donations</t>
-  </si>
-  <si>
-    <t>Create and Desing a Page for Donations (prio que) with only dummies, this will be filled up from the Owner of the server</t>
-  </si>
-  <si>
-    <t>As a Visitor i want to get all the infos from the about us section</t>
-  </si>
-  <si>
-    <t>Desing a page with same dummi navigation and the story about the server owners, and what to expect from the server provide 1-2 pictures matching the server story</t>
-  </si>
-  <si>
     <t>Admin1</t>
+  </si>
+  <si>
+    <t>DummyUser</t>
+  </si>
+  <si>
+    <t>DummyAdmin</t>
+  </si>
+  <si>
+    <t>As a DummyAdmin i  want to show some server Highlights in form of a Video on the Mainpage</t>
+  </si>
+  <si>
+    <t>As a dummyUser, I want to view the main landing page.</t>
+  </si>
+  <si>
+    <t>The landing page includes headlines with teaser text, a dummy navigation is present at the bottom, featuring links to AboutR.O.T.Z, Rules, Discord, and Donations.</t>
+  </si>
+  <si>
+    <t>As a dummyUser, I want to know the server rules.</t>
+  </si>
+  <si>
+    <t>Design a second page titled "Rules" accessible from the main landing page, the "Rules" page should feature the same dummy navigation as the main landing page, The center of the "Rules" page should display an overview of the server rules.</t>
+  </si>
+  <si>
+    <t>As a dummyUser, I want to know the Discord link.</t>
+  </si>
+  <si>
+    <t>The navigation bar of the website should include a button labeled "Discord" that is visible on any page, Clicking on the "Discord" button should redirect the user to the Discord server invite link.</t>
+  </si>
+  <si>
+    <t>As a dummyUser, I want to access all the information from the "About Us" section.</t>
+  </si>
+  <si>
+    <t>Design a page titled "About Us" accessible from the main navigation, the "About Us" page should feature the same dummy navigation as the main landing page, the page should include a narrative about the server owners and what users can expect from the server, provide 1-2 pictures that visually represent the server's story.</t>
+  </si>
+  <si>
+    <t>As a DummyAdmin, I want to showcase a highlight video.</t>
+  </si>
+  <si>
+    <t>Record gameplay videos showcasing the server's highlights, edit and cut the recorded gameplay videos to create a highlight reel, Ensure the highlight video effectively represents the server's key features and exciting moments.</t>
+  </si>
+  <si>
+    <t>Identify a suitable space in the middle of the Mainpage to embed a teaser video, embed the teaser video in the designated space on the Mainpage.</t>
+  </si>
+  <si>
+    <t>As a DummyAdmin, I want to offer a server priority queue for donations and provide an explanation of how it works and how users can utilize it.</t>
+  </si>
+  <si>
+    <t>Create a page titled "Donations" accessible from the navigation bar, the "Donations" page should feature the same navigation bar as the rest of the website, design the page with placeholder content to explain the concept of the server priority queue for donations, ensure the explanation clearly outlines how the priority queue works and how users can gain access to it through donations, the content for this page will be filled by the owner of the server after receiving the finished website.</t>
   </si>
 </sst>
 </file>
@@ -478,14 +484,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="57.08984375" customWidth="1"/>
-    <col min="5" max="5" width="131.08984375" customWidth="1"/>
+    <col min="4" max="4" width="121.453125" customWidth="1"/>
+    <col min="5" max="5" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -510,13 +516,13 @@
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -524,113 +530,134 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10">
         <f>SUM(F3:F9)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04483315-53E4-4F6D-8817-9918336BC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C167DA5-C708-4EE7-8E1C-5C37AE9E3816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -59,52 +59,52 @@
     <t>Admin1</t>
   </si>
   <si>
-    <t>DummyUser</t>
-  </si>
-  <si>
-    <t>DummyAdmin</t>
-  </si>
-  <si>
-    <t>As a DummyAdmin i  want to show some server Highlights in form of a Video on the Mainpage</t>
-  </si>
-  <si>
-    <t>As a dummyUser, I want to view the main landing page.</t>
-  </si>
-  <si>
     <t>The landing page includes headlines with teaser text, a dummy navigation is present at the bottom, featuring links to AboutR.O.T.Z, Rules, Discord, and Donations.</t>
   </si>
   <si>
-    <t>As a dummyUser, I want to know the server rules.</t>
-  </si>
-  <si>
     <t>Design a second page titled "Rules" accessible from the main landing page, the "Rules" page should feature the same dummy navigation as the main landing page, The center of the "Rules" page should display an overview of the server rules.</t>
   </si>
   <si>
-    <t>As a dummyUser, I want to know the Discord link.</t>
-  </si>
-  <si>
     <t>The navigation bar of the website should include a button labeled "Discord" that is visible on any page, Clicking on the "Discord" button should redirect the user to the Discord server invite link.</t>
   </si>
   <si>
-    <t>As a dummyUser, I want to access all the information from the "About Us" section.</t>
-  </si>
-  <si>
     <t>Design a page titled "About Us" accessible from the main navigation, the "About Us" page should feature the same dummy navigation as the main landing page, the page should include a narrative about the server owners and what users can expect from the server, provide 1-2 pictures that visually represent the server's story.</t>
   </si>
   <si>
-    <t>As a DummyAdmin, I want to showcase a highlight video.</t>
-  </si>
-  <si>
     <t>Record gameplay videos showcasing the server's highlights, edit and cut the recorded gameplay videos to create a highlight reel, Ensure the highlight video effectively represents the server's key features and exciting moments.</t>
   </si>
   <si>
     <t>Identify a suitable space in the middle of the Mainpage to embed a teaser video, embed the teaser video in the designated space on the Mainpage.</t>
   </si>
   <si>
-    <t>As a DummyAdmin, I want to offer a server priority queue for donations and provide an explanation of how it works and how users can utilize it.</t>
-  </si>
-  <si>
     <t>Create a page titled "Donations" accessible from the navigation bar, the "Donations" page should feature the same navigation bar as the rest of the website, design the page with placeholder content to explain the concept of the server priority queue for donations, ensure the explanation clearly outlines how the priority queue works and how users can gain access to it through donations, the content for this page will be filled by the owner of the server after receiving the finished website.</t>
+  </si>
+  <si>
+    <t>As a User, I want to view the main landing page.</t>
+  </si>
+  <si>
+    <t>As a yUser, I want to know the server rules.</t>
+  </si>
+  <si>
+    <t>As a User, I want to know the Discord link.</t>
+  </si>
+  <si>
+    <t>As a User, I want to access all the information from the "About Us" section.</t>
+  </si>
+  <si>
+    <t>As a Admin, I want to showcase a highlight video.</t>
+  </si>
+  <si>
+    <t>As a Admin i  want to show some server Highlights in form of a Video on the Mainpage</t>
+  </si>
+  <si>
+    <t>As a Admin, I want to offer a server priority queue for donations and provide an explanation of how it works and how users can utilize it.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -542,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -562,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -582,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -642,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>3</v>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C167DA5-C708-4EE7-8E1C-5C37AE9E3816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF12C7-888C-4C1F-A237-7361F9A6F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>As a User, I want to view the main landing page.</t>
   </si>
   <si>
-    <t>As a yUser, I want to know the server rules.</t>
-  </si>
-  <si>
     <t>As a User, I want to know the Discord link.</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>As a User, I want to know the server rules.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -542,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -562,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -582,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -642,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF12C7-888C-4C1F-A237-7361F9A6F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF929F9-088A-4530-89F1-5FDAA54D28C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>As a User, I want to know the server rules.</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +497,7 @@
     <col min="5" max="5" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +516,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -534,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -554,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -574,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -594,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -614,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -634,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -654,10 +660,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F10">
         <f>SUM(F3:F9)</f>
         <v>27</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G3:G9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF929F9-088A-4530-89F1-5FDAA54D28C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079A0A3-8FF2-4F49-A9CD-CA0763BCB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Create a page titled "Donations" accessible from the navigation bar, the "Donations" page should feature the same navigation bar as the rest of the website, design the page with placeholder content to explain the concept of the server priority queue for donations, ensure the explanation clearly outlines how the priority queue works and how users can gain access to it through donations, the content for this page will be filled by the owner of the server after receiving the finished website.</t>
   </si>
   <si>
-    <t>As a User, I want to view the main landing page.</t>
-  </si>
-  <si>
     <t>As a User, I want to know the Discord link.</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>As a User, I want to get an overview on the Mainpage on how this S.T.A.L.K.E.R inspire server looks like</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -539,6 +539,9 @@
       <c r="F3">
         <v>5</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -548,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -568,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -588,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -608,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -628,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -648,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -667,7 +670,7 @@
       </c>
       <c r="G10">
         <f>SUM(G3:G9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079A0A3-8FF2-4F49-A9CD-CA0763BCB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06457D76-72FD-4298-BE0A-B99028EF0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>As a User, I want to know the Discord link.</t>
   </si>
   <si>
-    <t>As a User, I want to access all the information from the "About Us" section.</t>
-  </si>
-  <si>
     <t>As a Admin, I want to showcase a highlight video.</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>As a User, I want to get an overview on the Mainpage on how this S.T.A.L.K.E.R inspire server looks like</t>
+  </si>
+  <si>
+    <t>As a User, I want to access all the information from the "About Us" section, to see why the owners choose the server to look like it actually is</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -562,6 +562,9 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -571,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -591,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -602,6 +605,9 @@
       <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -611,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -631,10 +637,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -651,15 +657,18 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
@@ -670,7 +679,7 @@
       </c>
       <c r="G10">
         <f>SUM(G3:G9)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06457D76-72FD-4298-BE0A-B99028EF0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30082AB5-D3ED-4C80-AC53-9196A0A07B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11170" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t>As a User, I want to get an overview on the Mainpage on how this S.T.A.L.K.E.R inspire server looks like</t>
-  </si>
-  <si>
     <t>As a User, I want to access all the information from the "About Us" section, to see why the owners choose the server to look like it actually is</t>
+  </si>
+  <si>
+    <t>As a User, I want to get an overview on the Mainpage on how this S.T.A.L.K.E.R inspired server looks like</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30082AB5-D3ED-4C80-AC53-9196A0A07B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD15A267-4629-4604-9797-A90757F6AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Create a page titled "Donations" accessible from the navigation bar, the "Donations" page should feature the same navigation bar as the rest of the website, design the page with placeholder content to explain the concept of the server priority queue for donations, ensure the explanation clearly outlines how the priority queue works and how users can gain access to it through donations, the content for this page will be filled by the owner of the server after receiving the finished website.</t>
   </si>
   <si>
-    <t>As a User, I want to know the Discord link.</t>
-  </si>
-  <si>
     <t>As a Admin, I want to showcase a highlight video.</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>As a User, I want to get an overview on the Mainpage on how this S.T.A.L.K.E.R inspired server looks like</t>
+  </si>
+  <si>
+    <t>As a User, I want to know the Discord link in order to join the Discord server.</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAABFAD-F519-42B9-A6C1-1F7B8DF6734D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -574,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -594,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -617,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -637,10 +637,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -657,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43680\Desktop\Schule\SYP\Sommerprojekt syp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD15A267-4629-4604-9797-A90757F6AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0C92A-EF7D-46FD-97EC-DBC1327972D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{421BF6F9-28D3-490D-AE3D-251A0DFA6C90}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,6 +585,9 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -679,7 +682,7 @@
       </c>
       <c r="G10">
         <f>SUM(G3:G9)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
